--- a/JV/jv_4.xlsx
+++ b/JV/jv_4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\1.EPFL\MA4\PdS\PV_lab_PdS\JV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2011D-B260-4A4E-BCB4-950838765D91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32D786-84CA-4EFB-B0B7-82DD2C5F7717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="33">
   <si>
     <t>1_1</t>
   </si>
@@ -114,12 +114,27 @@
   <si>
     <t>w2-R</t>
   </si>
+  <si>
+    <t>DPPP below</t>
+  </si>
+  <si>
+    <t>DPPP both</t>
+  </si>
+  <si>
+    <t>phos below</t>
+  </si>
+  <si>
+    <t>phos both</t>
+  </si>
+  <si>
+    <t>ref</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +146,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -178,23 +186,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -227,6 +226,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Efficicency</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -271,7 +295,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_2</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -279,7 +303,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -294,7 +318,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -345,7 +369,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_1</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -353,7 +377,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -364,11 +388,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -419,7 +443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -427,7 +451,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -442,7 +466,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -493,7 +517,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -501,7 +525,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -512,11 +536,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -567,7 +593,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -575,7 +601,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -590,7 +616,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent5"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -641,7 +667,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -649,7 +675,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -664,7 +690,7 @@
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="00B0F0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -715,7 +741,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -723,9 +749,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -736,15 +760,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -795,7 +815,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -803,9 +823,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -816,15 +834,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -875,7 +889,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9_1</c:v>
+                  <c:v>ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -883,9 +897,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -896,15 +908,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -961,6 +969,8 @@
         <c:axId val="561005759"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -978,6 +988,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1017,11 +1082,14 @@
         <c:crossAx val="1760595631"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1760595631"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="6"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1039,6 +1107,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>PCE (%)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1093,7 +1216,7 @@
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
+        <a:ln w="12700">
           <a:noFill/>
         </a:ln>
         <a:effectLst/>
@@ -1222,7 +1345,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_2</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1296,7 +1419,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_1</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1370,7 +1493,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1444,7 +1567,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1518,7 +1641,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1592,7 +1715,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1666,7 +1789,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1746,7 +1869,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1826,7 +1949,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9_1</c:v>
+                  <c:v>ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2173,7 +2296,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_2</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2247,7 +2370,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_1</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2321,7 +2444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2395,7 +2518,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2469,7 +2592,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2543,7 +2666,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2617,7 +2740,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2697,7 +2820,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2777,7 +2900,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9_1</c:v>
+                  <c:v>ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3124,7 +3247,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>1_2</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3198,7 +3321,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>2_1</c:v>
+                  <c:v>DPPP below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3272,7 +3395,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>3_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3346,7 +3469,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>4_1</c:v>
+                  <c:v>DPPP both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3420,7 +3543,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>5_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3494,7 +3617,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>6_1</c:v>
+                  <c:v>phos below</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3568,7 +3691,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>7_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3648,7 +3771,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>8_1</c:v>
+                  <c:v>phos both</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3728,7 +3851,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>9_1</c:v>
+                  <c:v>ref</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6245,15 +6368,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>373380</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>102870</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6675,8 +6798,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6897,235 +7020,233 @@
         <v>66.14</v>
       </c>
     </row>
-    <row r="7" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="D9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10">
         <v>13.37</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>14.09</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10">
         <v>10.52</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10">
         <v>11.25</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10">
         <v>11.96</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10">
         <v>12.29</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10">
         <v>12.46</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10">
         <v>14.67</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10">
         <v>14.02</v>
       </c>
-      <c r="K10" s="2">
+      <c r="K10">
         <v>14.25</v>
       </c>
-      <c r="L10" s="2">
+      <c r="L10">
         <v>14.35</v>
       </c>
-      <c r="M10" s="2">
+      <c r="M10">
         <v>13.73</v>
       </c>
-      <c r="N10" s="2">
+      <c r="N10">
         <v>13.81</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11">
         <v>20.420000000000002</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>20.73</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11">
         <v>16.95</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11">
         <v>17.82</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11">
         <v>20.47</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11">
         <v>21</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11">
         <v>20.96</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11">
         <v>21.14</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11">
         <v>20.51</v>
       </c>
-      <c r="K11" s="2">
+      <c r="K11">
         <v>20.78</v>
       </c>
-      <c r="L11" s="2">
+      <c r="L11">
         <v>20.059999999999999</v>
       </c>
-      <c r="M11" s="2">
+      <c r="M11">
         <v>19.77</v>
       </c>
-      <c r="N11" s="2">
+      <c r="N11">
         <v>19.62</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12">
         <v>1086.51</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>1079.1300000000001</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12">
         <v>1039.6400000000001</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12">
         <v>1043.1099999999999</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12">
         <v>1072.19</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12">
         <v>1078.1400000000001</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12">
         <v>1076.29</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12">
         <v>1064.9100000000001</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12">
         <v>1066.75</v>
       </c>
-      <c r="K12" s="2">
+      <c r="K12">
         <v>1085.6099999999999</v>
       </c>
-      <c r="L12" s="2">
+      <c r="L12">
         <v>1080.78</v>
       </c>
-      <c r="M12" s="2">
+      <c r="M12">
         <v>1066.44</v>
       </c>
-      <c r="N12" s="2">
+      <c r="N12">
         <v>1039.4000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13">
         <v>60.37</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>63.2</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13">
         <v>61.73</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13">
         <v>61.1</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13">
         <v>54.98</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13">
         <v>55.62</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13">
         <v>56.27</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13">
         <v>68.069999999999993</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13">
         <v>66.17</v>
       </c>
-      <c r="K13" s="2">
+      <c r="K13">
         <v>63.18</v>
       </c>
-      <c r="L13" s="2">
+      <c r="L13">
         <v>66.900000000000006</v>
       </c>
-      <c r="M13" s="2">
+      <c r="M13">
         <v>65.11</v>
       </c>
-      <c r="N13" s="2">
+      <c r="N13">
         <v>68.52</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -7421,302 +7542,300 @@
         <v>52.23</v>
       </c>
     </row>
-    <row r="21" spans="1:19" s="4" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="5" t="s">
+      <c r="G23" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="5" t="s">
+      <c r="K23" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q23" s="5" t="s">
+      <c r="Q23" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="R23" s="5" t="s">
+      <c r="R23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24">
         <v>9.8699999999999992</v>
       </c>
-      <c r="C24" s="4">
+      <c r="C24">
         <v>9.6300000000000008</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24">
         <v>8.85</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24">
         <v>11.79</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24">
         <v>11.89</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24">
         <v>13.09</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24">
         <v>13.25</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24">
         <v>13.29</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24">
         <v>10.42</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24">
         <v>9.5399999999999991</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24">
         <v>8.48</v>
       </c>
-      <c r="M24" s="4">
+      <c r="M24">
         <v>9.15</v>
       </c>
-      <c r="N24" s="4">
+      <c r="N24">
         <v>10.17</v>
       </c>
-      <c r="O24" s="4">
+      <c r="O24">
         <v>9.5399999999999991</v>
       </c>
-      <c r="P24" s="4">
+      <c r="P24">
         <v>11.76</v>
       </c>
-      <c r="Q24" s="4">
+      <c r="Q24">
         <v>9.75</v>
       </c>
-      <c r="R24" s="4">
+      <c r="R24">
         <v>10.66</v>
       </c>
-      <c r="S24" s="4">
+      <c r="S24">
         <v>10.62</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25">
         <v>18.350000000000001</v>
       </c>
-      <c r="C25" s="4">
+      <c r="C25">
         <v>18.21</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25">
         <v>16.079999999999998</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25">
         <v>19.18</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25">
         <v>19.100000000000001</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25">
         <v>19.96</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25">
         <v>19.88</v>
       </c>
-      <c r="I25" s="4">
+      <c r="I25">
         <v>19.84</v>
       </c>
-      <c r="J25" s="4">
+      <c r="J25">
         <v>17.920000000000002</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25">
         <v>17.59</v>
       </c>
-      <c r="L25" s="4">
+      <c r="L25">
         <v>14.09</v>
       </c>
-      <c r="M25" s="4">
+      <c r="M25">
         <v>15.01</v>
       </c>
-      <c r="N25" s="4">
+      <c r="N25">
         <v>17.78</v>
       </c>
-      <c r="O25" s="4">
+      <c r="O25">
         <v>16.809999999999999</v>
       </c>
-      <c r="P25" s="4">
+      <c r="P25">
         <v>17.43</v>
       </c>
-      <c r="Q25" s="4">
+      <c r="Q25">
         <v>17.27</v>
       </c>
-      <c r="R25" s="4">
+      <c r="R25">
         <v>18.12</v>
       </c>
-      <c r="S25" s="4">
+      <c r="S25">
         <v>17.95</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26">
         <v>1081.72</v>
       </c>
-      <c r="C26" s="4">
+      <c r="C26">
         <v>1080.3699999999999</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26">
         <v>1066.3599999999999</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26">
         <v>1091.6300000000001</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26">
         <v>1088.22</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26">
         <v>1091.9100000000001</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26">
         <v>1089.43</v>
       </c>
-      <c r="I26" s="4">
+      <c r="I26">
         <v>1088.18</v>
       </c>
-      <c r="J26" s="4">
+      <c r="J26">
         <v>1062.6300000000001</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26">
         <v>1069.4000000000001</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26">
         <v>1060.3499999999999</v>
       </c>
-      <c r="M26" s="4">
+      <c r="M26">
         <v>1061.74</v>
       </c>
-      <c r="N26" s="4">
+      <c r="N26">
         <v>1066.6099999999999</v>
       </c>
-      <c r="O26" s="4">
+      <c r="O26">
         <v>1069.27</v>
       </c>
-      <c r="P26" s="4">
+      <c r="P26">
         <v>1066.21</v>
       </c>
-      <c r="Q26" s="4">
+      <c r="Q26">
         <v>1074.42</v>
       </c>
-      <c r="R26" s="4">
+      <c r="R26">
         <v>1051.92</v>
       </c>
-      <c r="S26" s="4">
+      <c r="S26">
         <v>1053.93</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27">
         <v>50.28</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C27">
         <v>48.99</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27">
         <v>53.67</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27">
         <v>56.34</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27">
         <v>57.19</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27">
         <v>61.51</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27">
         <v>62.24</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I27">
         <v>62.48</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J27">
         <v>76.930000000000007</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K27">
         <v>51.6</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27">
         <v>58.46</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M27">
         <v>58.81</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N27">
         <v>54.4</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O27">
         <v>53.27</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P27">
         <v>52.42</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q27">
         <v>53.53</v>
       </c>
-      <c r="R27" s="4">
+      <c r="R27">
         <v>52.15</v>
       </c>
-      <c r="S27" s="4">
+      <c r="S27">
         <v>52.23</v>
       </c>
     </row>
@@ -7727,132 +7846,113 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26447964-5D34-42FC-AC4B-B88C726DF426}">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A1" s="4"/>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>12</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>13.85</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>10.27</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>10.99</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>11.31</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>14.34</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>13.72</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>13.76</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>13.41</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>13.43</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>9.6300000000000008</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>8.85</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>11.79</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>13.09</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>10.42</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>8.48</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>10.17</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>11.76</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>10.66</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="R7" s="4"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R8" s="4"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R9" s="4"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R10" s="4"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="R11" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7865,101 +7965,101 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L22" sqref="L22"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>20.78</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>17</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>20.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>21.05</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>21.31</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>20.64</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>20.82</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>20.02</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>19.84</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>18.21</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>16.079999999999998</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>19.18</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>19.96</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>17.920000000000002</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>14.09</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>17.78</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>17.43</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>18.12</v>
       </c>
     </row>
@@ -7974,101 +8074,101 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>1076.98</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>1035.17</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>1063.05</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>1068.5899999999999</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>1058.6400000000001</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>1064.3800000000001</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>1081.8599999999999</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>1061.54</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>1035.82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>1080.3699999999999</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>1066.3599999999999</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>1091.6300000000001</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>1091.9100000000001</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>1062.6300000000001</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>1060.3499999999999</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>1066.6099999999999</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>1066.21</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>1051.92</v>
       </c>
     </row>
@@ -8083,101 +8183,101 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="B1" sqref="B1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>12</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2">
         <v>62.27</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2">
         <v>60.31</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2">
         <v>50.48</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2">
         <v>51.68</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2">
         <v>67.760000000000005</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2">
         <v>64.8</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2">
         <v>61.1</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2">
         <v>63.07</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2">
         <v>66.14</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3">
         <v>48.99</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3">
         <v>53.67</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3">
         <v>56.34</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3">
         <v>61.51</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3">
         <v>76.930000000000007</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3">
         <v>58.46</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3">
         <v>54.4</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3">
         <v>52.42</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3">
         <v>52.15</v>
       </c>
     </row>

--- a/JV/jv_4.xlsx
+++ b/JV/jv_4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lucas\Documents\1.EPFL\MA4\PdS\PV_lab_PdS\JV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D32D786-84CA-4EFB-B0B7-82DD2C5F7717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACBA3DD-6679-4263-8F03-24FAD69B9789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data Full" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -388,7 +388,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -462,7 +462,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -536,9 +536,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -612,7 +610,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -686,7 +684,7 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="00B0F0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
@@ -2252,6 +2250,31 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Voc</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2304,7 +2327,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2315,11 +2338,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2378,7 +2401,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2389,11 +2412,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:srgbClr val="FFC000"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2452,7 +2475,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2463,11 +2486,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2526,7 +2549,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2537,11 +2560,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="FFFF00"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent4"/>
+                  <a:srgbClr val="FFFF00"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2674,7 +2697,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2685,11 +2708,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:srgbClr val="0070C0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent6"/>
+                  <a:srgbClr val="0070C0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2748,9 +2771,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2761,15 +2782,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2828,9 +2845,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2841,15 +2856,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="7030A0"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="7030A0"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2908,9 +2919,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2921,15 +2930,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:srgbClr val="002060"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
+                  <a:srgbClr val="002060"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -2986,6 +2991,8 @@
         <c:axId val="563061503"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -3003,6 +3010,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Week</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3042,6 +3104,7 @@
         <c:crossAx val="563061983"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="563061983"/>
@@ -3064,6 +3127,61 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>mV</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -6449,16 +6567,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>403860</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>72390</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>26670</xdr:rowOff>
+      <xdr:rowOff>106680</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7848,8 +7966,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26447964-5D34-42FC-AC4B-B88C726DF426}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8073,8 +8191,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8473F7BE-7928-4CD8-8404-53B34C61C866}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
